--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\7rmart\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\MyfirstRepo\7rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2963E-8A88-48F5-A810-AB983DCED0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443DBAB-9F01-4A56-B0A8-7B70241618BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="4" activeTab="4" xr2:uid="{14C33F94-55FF-46E9-8091-D0902ADF835A}"/>
+    <workbookView xWindow="11820" yWindow="225" windowWidth="8670" windowHeight="10695" xr2:uid="{14C33F94-55FF-46E9-8091-D0902ADF835A}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Flash Sales</t>
   </si>
   <si>
-    <t>anuanu</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -182,13 +179,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>DressItems</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -553,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543C1FBF-7626-488B-974E-3F9A642A201A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,12 +581,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -597,10 +594,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -659,51 +656,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -731,19 +728,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -751,10 +748,10 @@
         <v>9876543210</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2">
         <v>1.3</v>
@@ -768,10 +765,10 @@
         <v>8765432109</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -785,10 +782,10 @@
         <v>1234567890</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>3.3</v>
@@ -811,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C78A2-75F1-4121-9D72-A05F4F127189}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -824,62 +821,62 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -905,21 +902,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>9876543210</v>
@@ -927,10 +924,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>1234568908</v>
@@ -938,10 +935,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C4">
         <v>8877665544</v>
@@ -949,10 +946,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C5">
         <v>7654321904</v>
